--- a/GanttChartFinal.xlsx
+++ b/GanttChartFinal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.elsayed/Documents/GitHub/app-3-4-SATrepositry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7859FE-4118-754E-A154-C9CFC4EE2C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE9236D-5EAF-2E4C-A6D5-3B9B65834628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project schedule" sheetId="11" r:id="rId1"/>
@@ -26,7 +26,6 @@
     <definedName name="today" localSheetId="0">TODAY()</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1285,19 +1284,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1314,17 +1316,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1342,38 +1341,7 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="499">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="104">
     <dxf>
       <border>
         <left style="thin">
@@ -1416,288 +1384,6 @@
         <bottom style="thin">
           <color theme="0" tint="-4.9989318521683403E-2"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1815,17 +1501,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -1837,142 +1512,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
       <border>
@@ -1990,23 +1530,6 @@
         </right>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2044,10 +1567,36 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
         <top style="thin">
           <color theme="0" tint="-4.9989318521683403E-2"/>
         </top>
@@ -2066,6 +1615,21 @@
         </right>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2152,20 +1716,49 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
+          <bgColor theme="8"/>
         </patternFill>
       </fill>
       <border>
         <left/>
         <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2203,7 +1796,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
@@ -2233,6 +1826,23 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color theme="5"/>
@@ -2247,12 +1857,10 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
         <top style="thin">
           <color theme="0" tint="-4.9989318521683403E-2"/>
         </top>
@@ -2264,10 +1872,12 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
+        <left/>
+        <right/>
         <top style="thin">
           <color theme="0" tint="-4.9989318521683403E-2"/>
         </top>
@@ -2342,6 +1952,38 @@
         </right>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2465,1599 +2107,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color theme="5"/>
@@ -4136,18 +2185,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
@@ -4158,674 +2195,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
@@ -4867,1034 +2236,9 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
@@ -5992,45 +2336,9 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -6052,13 +2360,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="8"/>
         </patternFill>
       </fill>
@@ -6068,15 +2369,14 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
       <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
+        <left/>
+        <right/>
       </border>
     </dxf>
     <dxf>
@@ -6124,47 +2424,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color theme="5"/>
@@ -6174,1703 +2433,6 @@
         </right>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -8192,15 +2754,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="498"/>
-      <tableStyleElement type="headerRow" dxfId="497"/>
-      <tableStyleElement type="totalRow" dxfId="496"/>
-      <tableStyleElement type="firstColumn" dxfId="495"/>
-      <tableStyleElement type="lastColumn" dxfId="494"/>
-      <tableStyleElement type="firstRowStripe" dxfId="493"/>
-      <tableStyleElement type="secondRowStripe" dxfId="492"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="491"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="490"/>
+      <tableStyleElement type="wholeTable" dxfId="103"/>
+      <tableStyleElement type="headerRow" dxfId="102"/>
+      <tableStyleElement type="totalRow" dxfId="101"/>
+      <tableStyleElement type="firstColumn" dxfId="100"/>
+      <tableStyleElement type="lastColumn" dxfId="99"/>
+      <tableStyleElement type="firstRowStripe" dxfId="98"/>
+      <tableStyleElement type="secondRowStripe" dxfId="97"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="96"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="95"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -11502,8 +6064,8 @@
   </sheetPr>
   <dimension ref="A1:II197"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11529,29 +6091,29 @@
       <c r="E1" s="15"/>
       <c r="F1" s="16"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="115" t="s">
+      <c r="I1" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
       <c r="P1" s="19"/>
-      <c r="Q1" s="113">
+      <c r="Q1" s="114">
         <f>DATE(2025,5,8)</f>
         <v>45785</v>
       </c>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="114"/>
-      <c r="Z1" s="114"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="115"/>
+      <c r="Z1" s="115"/>
     </row>
     <row r="2" spans="1:120" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="81" t="s">
@@ -11563,28 +6125,28 @@
       <c r="D2" s="17"/>
       <c r="E2" s="18"/>
       <c r="F2" s="17"/>
-      <c r="I2" s="117" t="s">
+      <c r="I2" s="118" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="118"/>
-      <c r="O2" s="118"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
       <c r="P2" s="96"/>
-      <c r="Q2" s="111">
+      <c r="Q2" s="112">
         <v>1</v>
       </c>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="113"/>
+      <c r="X2" s="113"/>
+      <c r="Y2" s="113"/>
+      <c r="Z2" s="113"/>
     </row>
     <row r="3" spans="1:120" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
@@ -11600,182 +6162,182 @@
         <v>11</v>
       </c>
       <c r="E4" s="25"/>
-      <c r="I4" s="108">
+      <c r="I4" s="122">
         <f>I5</f>
         <v>45782</v>
       </c>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="106">
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="120"/>
+      <c r="O4" s="120"/>
+      <c r="P4" s="120">
         <f>P5</f>
         <v>45789</v>
       </c>
-      <c r="Q4" s="106"/>
-      <c r="R4" s="106"/>
-      <c r="S4" s="106"/>
-      <c r="T4" s="106"/>
-      <c r="U4" s="106"/>
-      <c r="V4" s="106"/>
-      <c r="W4" s="106">
+      <c r="Q4" s="120"/>
+      <c r="R4" s="120"/>
+      <c r="S4" s="120"/>
+      <c r="T4" s="120"/>
+      <c r="U4" s="120"/>
+      <c r="V4" s="120"/>
+      <c r="W4" s="120">
         <f>W5</f>
         <v>45796</v>
       </c>
-      <c r="X4" s="106"/>
-      <c r="Y4" s="106"/>
-      <c r="Z4" s="106"/>
-      <c r="AA4" s="106"/>
-      <c r="AB4" s="106"/>
-      <c r="AC4" s="106"/>
-      <c r="AD4" s="106">
+      <c r="X4" s="120"/>
+      <c r="Y4" s="120"/>
+      <c r="Z4" s="120"/>
+      <c r="AA4" s="120"/>
+      <c r="AB4" s="120"/>
+      <c r="AC4" s="120"/>
+      <c r="AD4" s="120">
         <f>AD5</f>
         <v>45803</v>
       </c>
-      <c r="AE4" s="106"/>
-      <c r="AF4" s="106"/>
-      <c r="AG4" s="106"/>
-      <c r="AH4" s="106"/>
-      <c r="AI4" s="106"/>
-      <c r="AJ4" s="106"/>
-      <c r="AK4" s="106">
+      <c r="AE4" s="120"/>
+      <c r="AF4" s="120"/>
+      <c r="AG4" s="120"/>
+      <c r="AH4" s="120"/>
+      <c r="AI4" s="120"/>
+      <c r="AJ4" s="120"/>
+      <c r="AK4" s="120">
         <f>AK5</f>
         <v>45810</v>
       </c>
-      <c r="AL4" s="106"/>
-      <c r="AM4" s="106"/>
-      <c r="AN4" s="106"/>
-      <c r="AO4" s="106"/>
-      <c r="AP4" s="106"/>
-      <c r="AQ4" s="106"/>
-      <c r="AR4" s="106">
+      <c r="AL4" s="120"/>
+      <c r="AM4" s="120"/>
+      <c r="AN4" s="120"/>
+      <c r="AO4" s="120"/>
+      <c r="AP4" s="120"/>
+      <c r="AQ4" s="120"/>
+      <c r="AR4" s="120">
         <f>AR5</f>
         <v>45817</v>
       </c>
-      <c r="AS4" s="106"/>
-      <c r="AT4" s="106"/>
-      <c r="AU4" s="106"/>
-      <c r="AV4" s="106"/>
-      <c r="AW4" s="106"/>
-      <c r="AX4" s="106"/>
-      <c r="AY4" s="106">
+      <c r="AS4" s="120"/>
+      <c r="AT4" s="120"/>
+      <c r="AU4" s="120"/>
+      <c r="AV4" s="120"/>
+      <c r="AW4" s="120"/>
+      <c r="AX4" s="120"/>
+      <c r="AY4" s="120">
         <f>AY5</f>
         <v>45824</v>
       </c>
-      <c r="AZ4" s="106"/>
-      <c r="BA4" s="106"/>
-      <c r="BB4" s="106"/>
-      <c r="BC4" s="106"/>
-      <c r="BD4" s="106"/>
-      <c r="BE4" s="106"/>
-      <c r="BF4" s="106">
+      <c r="AZ4" s="120"/>
+      <c r="BA4" s="120"/>
+      <c r="BB4" s="120"/>
+      <c r="BC4" s="120"/>
+      <c r="BD4" s="120"/>
+      <c r="BE4" s="120"/>
+      <c r="BF4" s="120">
         <f>BF5</f>
         <v>45831</v>
       </c>
-      <c r="BG4" s="106"/>
-      <c r="BH4" s="106"/>
-      <c r="BI4" s="106"/>
-      <c r="BJ4" s="106"/>
-      <c r="BK4" s="106"/>
-      <c r="BL4" s="107"/>
-      <c r="BM4" s="106">
+      <c r="BG4" s="120"/>
+      <c r="BH4" s="120"/>
+      <c r="BI4" s="120"/>
+      <c r="BJ4" s="120"/>
+      <c r="BK4" s="120"/>
+      <c r="BL4" s="121"/>
+      <c r="BM4" s="120">
         <f>BM5</f>
         <v>45838</v>
       </c>
-      <c r="BN4" s="106"/>
-      <c r="BO4" s="106"/>
-      <c r="BP4" s="106"/>
-      <c r="BQ4" s="106"/>
-      <c r="BR4" s="106"/>
-      <c r="BS4" s="107"/>
-      <c r="BT4" s="106">
+      <c r="BN4" s="120"/>
+      <c r="BO4" s="120"/>
+      <c r="BP4" s="120"/>
+      <c r="BQ4" s="120"/>
+      <c r="BR4" s="120"/>
+      <c r="BS4" s="121"/>
+      <c r="BT4" s="120">
         <f>BT5</f>
         <v>45845</v>
       </c>
-      <c r="BU4" s="106"/>
-      <c r="BV4" s="106"/>
-      <c r="BW4" s="106"/>
-      <c r="BX4" s="106"/>
-      <c r="BY4" s="106"/>
-      <c r="BZ4" s="107"/>
-      <c r="CA4" s="106">
+      <c r="BU4" s="120"/>
+      <c r="BV4" s="120"/>
+      <c r="BW4" s="120"/>
+      <c r="BX4" s="120"/>
+      <c r="BY4" s="120"/>
+      <c r="BZ4" s="121"/>
+      <c r="CA4" s="120">
         <f>CA5</f>
         <v>45852</v>
       </c>
-      <c r="CB4" s="106"/>
-      <c r="CC4" s="106"/>
-      <c r="CD4" s="106"/>
-      <c r="CE4" s="106"/>
-      <c r="CF4" s="106"/>
-      <c r="CG4" s="107"/>
-      <c r="CH4" s="106">
+      <c r="CB4" s="120"/>
+      <c r="CC4" s="120"/>
+      <c r="CD4" s="120"/>
+      <c r="CE4" s="120"/>
+      <c r="CF4" s="120"/>
+      <c r="CG4" s="121"/>
+      <c r="CH4" s="120">
         <f>CH5</f>
         <v>45859</v>
       </c>
-      <c r="CI4" s="106"/>
-      <c r="CJ4" s="106"/>
-      <c r="CK4" s="106"/>
-      <c r="CL4" s="106"/>
-      <c r="CM4" s="106"/>
-      <c r="CN4" s="107"/>
-      <c r="CO4" s="106">
+      <c r="CI4" s="120"/>
+      <c r="CJ4" s="120"/>
+      <c r="CK4" s="120"/>
+      <c r="CL4" s="120"/>
+      <c r="CM4" s="120"/>
+      <c r="CN4" s="121"/>
+      <c r="CO4" s="120">
         <f>CO5</f>
         <v>45866</v>
       </c>
-      <c r="CP4" s="106"/>
-      <c r="CQ4" s="106"/>
-      <c r="CR4" s="106"/>
-      <c r="CS4" s="106"/>
-      <c r="CT4" s="106"/>
-      <c r="CU4" s="107"/>
-      <c r="CV4" s="106">
+      <c r="CP4" s="120"/>
+      <c r="CQ4" s="120"/>
+      <c r="CR4" s="120"/>
+      <c r="CS4" s="120"/>
+      <c r="CT4" s="120"/>
+      <c r="CU4" s="121"/>
+      <c r="CV4" s="120">
         <f>CV5</f>
         <v>45873</v>
       </c>
-      <c r="CW4" s="106"/>
-      <c r="CX4" s="106"/>
-      <c r="CY4" s="106"/>
-      <c r="CZ4" s="106"/>
-      <c r="DA4" s="106"/>
-      <c r="DB4" s="107"/>
-      <c r="DC4" s="106">
+      <c r="CW4" s="120"/>
+      <c r="CX4" s="120"/>
+      <c r="CY4" s="120"/>
+      <c r="CZ4" s="120"/>
+      <c r="DA4" s="120"/>
+      <c r="DB4" s="121"/>
+      <c r="DC4" s="120">
         <f>DC5</f>
         <v>45880</v>
       </c>
-      <c r="DD4" s="106"/>
-      <c r="DE4" s="106"/>
-      <c r="DF4" s="106"/>
-      <c r="DG4" s="106"/>
-      <c r="DH4" s="106"/>
-      <c r="DI4" s="107"/>
-      <c r="DJ4" s="106">
+      <c r="DD4" s="120"/>
+      <c r="DE4" s="120"/>
+      <c r="DF4" s="120"/>
+      <c r="DG4" s="120"/>
+      <c r="DH4" s="120"/>
+      <c r="DI4" s="121"/>
+      <c r="DJ4" s="120">
         <f>DJ5</f>
         <v>45887</v>
       </c>
-      <c r="DK4" s="106"/>
-      <c r="DL4" s="106"/>
-      <c r="DM4" s="106"/>
-      <c r="DN4" s="106"/>
-      <c r="DO4" s="106"/>
-      <c r="DP4" s="107"/>
+      <c r="DK4" s="120"/>
+      <c r="DL4" s="120"/>
+      <c r="DM4" s="120"/>
+      <c r="DN4" s="120"/>
+      <c r="DO4" s="120"/>
+      <c r="DP4" s="121"/>
     </row>
     <row r="5" spans="1:120" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="119"/>
-      <c r="B5" s="120" t="s">
+      <c r="A5" s="106"/>
+      <c r="B5" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="122" t="s">
+      <c r="C5" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="109" t="s">
+      <c r="F5" s="111" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="26">
@@ -12228,8 +6790,8 @@
       </c>
     </row>
     <row r="6" spans="1:120" s="21" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="119"/>
-      <c r="B6" s="121"/>
+      <c r="A6" s="106"/>
+      <c r="B6" s="108"/>
       <c r="C6" s="110"/>
       <c r="D6" s="110"/>
       <c r="E6" s="110"/>
@@ -29387,16 +23949,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="CV4:DB4"/>
+    <mergeCell ref="DC4:DI4"/>
+    <mergeCell ref="DJ4:DP4"/>
+    <mergeCell ref="BM4:BS4"/>
+    <mergeCell ref="BT4:BZ4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="CO4:CU4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -29405,14 +23965,16 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="CV4:DB4"/>
-    <mergeCell ref="DC4:DI4"/>
-    <mergeCell ref="DJ4:DP4"/>
-    <mergeCell ref="BM4:BS4"/>
-    <mergeCell ref="BT4:BZ4"/>
-    <mergeCell ref="CA4:CG4"/>
-    <mergeCell ref="CH4:CN4"/>
-    <mergeCell ref="CO4:CU4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D39">
     <cfRule type="dataBar" priority="302">
@@ -29424,6 +23986,20 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{B0389232-4C98-4A03-AD0E-39F63BAD1F53}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40:D49">
+    <cfRule type="dataBar" priority="99">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D13B2AEB-4697-1F4B-A888-E0634BFD5C8E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -29456,8 +24032,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D49">
-    <cfRule type="dataBar" priority="99">
+  <conditionalFormatting sqref="D61:D64">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -29465,196 +24041,229 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D13B2AEB-4697-1F4B-A888-E0634BFD5C8E}</x14:id>
+          <x14:id>{5E5A2D73-FCCC-3740-B611-9501BEC964E9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D65:D68">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{33CF32AD-D90D-744C-9EB5-8CC3F8E671B4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G14">
-    <cfRule type="expression" dxfId="233" priority="153">
+    <cfRule type="expression" dxfId="94" priority="153">
       <formula>AND(TODAY()&gt;=I$5, TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:Q49 T49:BL49">
-    <cfRule type="expression" dxfId="232" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="39" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48:S49 T49:BL49">
-    <cfRule type="expression" dxfId="231" priority="38">
+    <cfRule type="expression" dxfId="92" priority="38">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48:S49">
-    <cfRule type="expression" dxfId="230" priority="53">
+    <cfRule type="expression" dxfId="91" priority="53">
       <formula>AND(TODAY()&gt;=I$5, TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51:BJ51 I52:BL54 F73:R73 U73:BI73">
-    <cfRule type="expression" dxfId="229" priority="104">
+    <cfRule type="expression" dxfId="90" priority="104">
       <formula>AND(task_start&lt;=F$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=F$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="105" stopIfTrue="1">
       <formula>AND(task_end&gt;=F$5,task_start&lt;G$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:BL19 T48:BL48 I48:Q48">
-    <cfRule type="expression" dxfId="227" priority="284" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="284" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:BL19 T48:BL48">
-    <cfRule type="expression" dxfId="226" priority="283">
+    <cfRule type="expression" dxfId="87" priority="283">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:BL24">
-    <cfRule type="expression" dxfId="225" priority="281">
+    <cfRule type="expression" dxfId="86" priority="282" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="281">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="224" priority="282" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:BL30 U25:AS31 I31:AS31 AV31:BL31">
-    <cfRule type="expression" dxfId="223" priority="315">
+    <cfRule type="expression" dxfId="84" priority="316" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="83" priority="315">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="222" priority="316" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:BL39 I4:BL30 U25:AS31 I31:AS31 AV31:BL31">
-    <cfRule type="expression" dxfId="221" priority="204">
+    <cfRule type="expression" dxfId="82" priority="204">
       <formula>AND(TODAY()&gt;=I$5, TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:BL47 AS42:CX49 T48:BL49 I51:BJ51 F73:R73 U73:DM73">
-    <cfRule type="expression" dxfId="220" priority="100">
+    <cfRule type="expression" dxfId="81" priority="100">
       <formula>AND(TODAY()&gt;=F$5, TODAY()&lt;G$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:BL46 AS42:CX49">
-    <cfRule type="expression" dxfId="219" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="98" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:BL47">
-    <cfRule type="expression" dxfId="218" priority="79">
+    <cfRule type="expression" dxfId="79" priority="79">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47:BL47">
-    <cfRule type="expression" dxfId="217" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="80" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50:BL50">
-    <cfRule type="expression" dxfId="216" priority="43">
+    <cfRule type="expression" dxfId="77" priority="43">
       <formula>AND(TODAY()&gt;=I$5, TODAY()&lt;J$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="215" priority="44">
+    <cfRule type="expression" dxfId="76" priority="44">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="45" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52:BL60">
-    <cfRule type="expression" dxfId="213" priority="55">
+    <cfRule type="expression" dxfId="74" priority="55">
       <formula>AND(TODAY()&gt;=I$5, TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55:BL60">
-    <cfRule type="expression" dxfId="212" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="59">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="60" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55:BL60">
-    <cfRule type="expression" dxfId="211" priority="59">
+  <conditionalFormatting sqref="I66:DF67">
+    <cfRule type="expression" dxfId="71" priority="10" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="9">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:DP12">
-    <cfRule type="expression" dxfId="210" priority="255">
+    <cfRule type="expression" dxfId="69" priority="256" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="255">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="209" priority="256" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:DP37 AJ33:BG39">
-    <cfRule type="expression" dxfId="208" priority="232" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="232" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:DP39">
-    <cfRule type="expression" dxfId="207" priority="112">
+    <cfRule type="expression" dxfId="66" priority="112">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:DP39">
-    <cfRule type="expression" dxfId="206" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="113" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I62:DP64">
+    <cfRule type="expression" dxfId="64" priority="15" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="14">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J66:DF67 I61:BL67">
+    <cfRule type="expression" dxfId="62" priority="8">
+      <formula>AND(TODAY()&gt;=I$5, TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="R48:S49">
-    <cfRule type="expression" dxfId="205" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="52" stopIfTrue="1">
       <formula>AND(task_end&gt;=R$5,task_start&lt;S$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS42:CX49">
-    <cfRule type="expression" dxfId="204" priority="97">
+    <cfRule type="expression" dxfId="60" priority="97">
       <formula>AND(task_start&lt;=AS$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AS$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT31">
-    <cfRule type="expression" dxfId="203" priority="320">
-      <formula>AND(TODAY()&gt;=AU$5, TODAY()&lt;AV$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="202" priority="323">
+    <cfRule type="expression" dxfId="59" priority="323">
       <formula>AND(task_start&lt;=AU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AU$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="324" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="324" stopIfTrue="1">
       <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="57" priority="320">
+      <formula>AND(TODAY()&gt;=AU$5, TODAY()&lt;AV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB51:DP54">
-    <cfRule type="expression" dxfId="200" priority="23">
+    <cfRule type="expression" dxfId="56" priority="24">
+      <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="37" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="35">
       <formula>AND(TODAY()&gt;=BB$5, TODAY()&lt;BC$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="24">
+    <cfRule type="expression" dxfId="53" priority="23">
+      <formula>AND(TODAY()&gt;=BB$5, TODAY()&lt;BC$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="36">
       <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="25" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="197" priority="35">
-      <formula>AND(TODAY()&gt;=BB$5, TODAY()&lt;BC$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="196" priority="36">
-      <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="195" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="25" stopIfTrue="1">
       <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ73:DM73">
-    <cfRule type="expression" dxfId="194" priority="102">
+    <cfRule type="expression" dxfId="50" priority="102">
       <formula>AND(task_start&lt;=BJ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BJ$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="103" stopIfTrue="1">
       <formula>AND(task_end&gt;=BJ$5,task_start&lt;BK$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL51">
-    <cfRule type="expression" dxfId="192" priority="326">
+    <cfRule type="expression" dxfId="48" priority="326">
       <formula>AND(TODAY()&gt;=BK$5, TODAY()&lt;BL$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="329">
+    <cfRule type="expression" dxfId="47" priority="329">
       <formula>AND(task_start&lt;=BK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BK$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="330" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="330" stopIfTrue="1">
       <formula>AND(task_end&gt;=BK$5,task_start&lt;BL$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29668,96 +24277,130 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="BM66:DF67">
+    <cfRule type="expression" dxfId="45" priority="6">
+      <formula>AND(task_start&lt;=BM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BM$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="7" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BM$5,task_start&lt;BN$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="BM4:DP6">
-    <cfRule type="expression" dxfId="189" priority="260">
+    <cfRule type="expression" dxfId="43" priority="260">
       <formula>AND(TODAY()&gt;=BM$5, TODAY()&lt;BN$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM9:DP19">
-    <cfRule type="expression" dxfId="188" priority="248">
+    <cfRule type="expression" dxfId="42" priority="248">
       <formula>AND(TODAY()&gt;=BM$5, TODAY()&lt;BN$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM13:DP19">
-    <cfRule type="expression" dxfId="187" priority="249">
+    <cfRule type="expression" dxfId="41" priority="249">
       <formula>AND(task_start&lt;=BM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BM$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="250" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="250" stopIfTrue="1">
       <formula>AND(task_end&gt;=BM$5,task_start&lt;BN$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM19:DP31">
-    <cfRule type="expression" dxfId="185" priority="236">
+    <cfRule type="expression" dxfId="39" priority="236">
       <formula>AND(TODAY()&gt;=BM$5, TODAY()&lt;BN$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="237">
+    <cfRule type="expression" dxfId="38" priority="238" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BM$5,task_start&lt;BN$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="237">
       <formula>AND(task_start&lt;=BM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BM$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="183" priority="238" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BM$5,task_start&lt;BN$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM33:DP39">
-    <cfRule type="expression" dxfId="182" priority="111">
+    <cfRule type="expression" dxfId="36" priority="111">
       <formula>AND(TODAY()&gt;=BM$5, TODAY()&lt;BN$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM41:DP49">
-    <cfRule type="expression" dxfId="181" priority="91">
+    <cfRule type="expression" dxfId="35" priority="92">
+      <formula>AND(task_end&gt;=BM$5,task_start&lt;BN$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="91">
       <formula>AND(task_start&lt;=BM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BM$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="180" priority="92">
-      <formula>AND(task_end&gt;=BM$5,task_start&lt;BN$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM50:DP50 BR51:DP51 BV51:DP54 BM52:BQ52 BM53:BV54">
-    <cfRule type="expression" dxfId="179" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="65" stopIfTrue="1">
       <formula>AND(task_end&gt;=BM$5,task_start&lt;BN$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM55:DP55">
-    <cfRule type="expression" dxfId="178" priority="57">
+    <cfRule type="expression" dxfId="32" priority="58" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BM$5,task_start&lt;BN$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="57">
       <formula>AND(task_start&lt;=BM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BM$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="58" stopIfTrue="1">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BM55:DP60">
+    <cfRule type="expression" dxfId="30" priority="17">
+      <formula>AND(TODAY()&gt;=BM$5, TODAY()&lt;BN$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BM56:DP60">
+    <cfRule type="expression" dxfId="29" priority="18">
+      <formula>AND(task_start&lt;=BM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BM$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="19" stopIfTrue="1">
       <formula>AND(task_end&gt;=BM$5,task_start&lt;BN$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM55:DP55">
-    <cfRule type="expression" dxfId="176" priority="56">
+  <conditionalFormatting sqref="BM62:DP64">
+    <cfRule type="expression" dxfId="27" priority="13">
+      <formula>AND(TODAY()&gt;=BM$5, TODAY()&lt;BN$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BM66:DP67">
+    <cfRule type="expression" dxfId="26" priority="4">
       <formula>AND(TODAY()&gt;=BM$5, TODAY()&lt;BN$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR52:BW52">
-    <cfRule type="expression" dxfId="175" priority="29">
+    <cfRule type="expression" dxfId="25" priority="29">
       <formula>AND(TODAY()&gt;=BR$5, TODAY()&lt;BS$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="30">
+    <cfRule type="expression" dxfId="24" priority="30">
       <formula>AND(task_start&lt;=BR$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BR$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="31" stopIfTrue="1">
       <formula>AND(task_end&gt;=BR$5,task_start&lt;BS$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR51:DP51 BV51:DP54 BM52:BQ52 BM53:BV54 BM41:DP50">
-    <cfRule type="expression" dxfId="172" priority="63">
+    <cfRule type="expression" dxfId="22" priority="63">
       <formula>AND(TODAY()&gt;=BM$5, TODAY()&lt;BN$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR51:DP51 BV51:DP54 BM52:BQ52 BM53:BV54 BM50:DP50">
-    <cfRule type="expression" dxfId="171" priority="64">
+    <cfRule type="expression" dxfId="21" priority="64">
       <formula>AND(task_start&lt;=BM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW53:BW54 CC53:CC54 CI53:CI54">
-    <cfRule type="expression" dxfId="170" priority="26">
+    <cfRule type="expression" dxfId="20" priority="27">
+      <formula>AND(task_start&lt;=BW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BW$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="26">
       <formula>AND(TODAY()&gt;=BW$5, TODAY()&lt;BX$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="27">
-      <formula>AND(task_start&lt;=BW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BW$5)</formula>
+    <cfRule type="expression" dxfId="18" priority="28" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BW$5,task_start&lt;BX$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="28" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BW$5,task_start&lt;BX$5)</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="DG66:DP67">
+    <cfRule type="expression" dxfId="17" priority="1">
+      <formula>AND(task_start&lt;=DG$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=DG$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="3" stopIfTrue="1">
+      <formula>AND(task_end&gt;=DG$5,task_start&lt;DH$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DS75:DS130">
@@ -29775,172 +24418,67 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DX106:GA111">
-    <cfRule type="expression" dxfId="167" priority="189">
+    <cfRule type="expression" dxfId="15" priority="190" stopIfTrue="1">
+      <formula>AND(task_end&gt;=DX$5,task_start&lt;DY$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="189">
       <formula>AND(task_start&lt;=DX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=DX$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="166" priority="190" stopIfTrue="1">
-      <formula>AND(task_end&gt;=DX$5,task_start&lt;DY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DX106:GA129">
-    <cfRule type="expression" dxfId="165" priority="157">
+    <cfRule type="expression" dxfId="13" priority="157">
       <formula>AND(TODAY()&gt;=DX$5, TODAY()&lt;DY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DX112:GA117">
-    <cfRule type="expression" dxfId="164" priority="187">
+    <cfRule type="expression" dxfId="12" priority="188" stopIfTrue="1">
+      <formula>AND(task_end&gt;=DX$5,task_start&lt;DY$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="187">
       <formula>AND(task_start&lt;=DX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=DX$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="163" priority="188" stopIfTrue="1">
-      <formula>AND(task_end&gt;=DX$5,task_start&lt;DY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DX125:GA129">
-    <cfRule type="expression" dxfId="162" priority="158">
+    <cfRule type="expression" dxfId="10" priority="158">
       <formula>AND(task_start&lt;=DX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=DX$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="159" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="159" stopIfTrue="1">
       <formula>AND(task_end&gt;=DX$5,task_start&lt;DY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DX119:IE123">
-    <cfRule type="expression" dxfId="160" priority="161">
+    <cfRule type="expression" dxfId="8" priority="161">
       <formula>AND(task_start&lt;=DX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=DX$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="162" stopIfTrue="1">
       <formula>AND(task_end&gt;=DX$5,task_start&lt;DY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GB106:IE117">
-    <cfRule type="expression" dxfId="147" priority="165">
+    <cfRule type="expression" dxfId="6" priority="165">
       <formula>AND(TODAY()&gt;=GB$5, TODAY()&lt;GC$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="166">
+    <cfRule type="expression" dxfId="5" priority="166">
       <formula>AND(task_start&lt;=GB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=GB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="167" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="167" stopIfTrue="1">
       <formula>AND(task_end&gt;=GB$5,task_start&lt;GC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GB119:IE123">
-    <cfRule type="expression" dxfId="144" priority="160">
+    <cfRule type="expression" dxfId="3" priority="160">
       <formula>AND(TODAY()&gt;=GB$5, TODAY()&lt;GC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GB125:IE129">
-    <cfRule type="expression" dxfId="143" priority="154">
-      <formula>AND(TODAY()&gt;=GB$5, TODAY()&lt;GC$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="142" priority="155">
+    <cfRule type="expression" dxfId="2" priority="155">
       <formula>AND(task_start&lt;=GB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=GB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="156" stopIfTrue="1">
       <formula>AND(task_end&gt;=GB$5,task_start&lt;GC$5)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM56:DP60">
-    <cfRule type="expression" dxfId="133" priority="17">
-      <formula>AND(TODAY()&gt;=BM$5, TODAY()&lt;BN$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM56:DP60">
-    <cfRule type="expression" dxfId="132" priority="19" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BM$5,task_start&lt;BN$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM56:DP60">
-    <cfRule type="expression" dxfId="131" priority="18">
-      <formula>AND(task_start&lt;=BM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BM$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61:D64">
-    <cfRule type="dataBar" priority="16">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5E5A2D73-FCCC-3740-B611-9501BEC964E9}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I61:BL64">
-    <cfRule type="expression" dxfId="130" priority="12">
-      <formula>AND(TODAY()&gt;=I$5, TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I62:DP64">
-    <cfRule type="expression" dxfId="129" priority="14">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="128" priority="15" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM62:DP64">
-    <cfRule type="expression" dxfId="127" priority="13">
-      <formula>AND(TODAY()&gt;=BM$5, TODAY()&lt;BN$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65:D68">
-    <cfRule type="dataBar" priority="11">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{33CF32AD-D90D-744C-9EB5-8CC3F8E671B4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I65:BL67 J66:DF67">
-    <cfRule type="expression" dxfId="126" priority="8">
-      <formula>AND(TODAY()&gt;=I$5, TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66:DF67">
-    <cfRule type="expression" dxfId="125" priority="9">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="124" priority="10" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM66:DF67">
-    <cfRule type="expression" dxfId="123" priority="5">
-      <formula>AND(TODAY()&gt;=BM$5, TODAY()&lt;BN$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="122" priority="6">
-      <formula>AND(task_start&lt;=BM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BM$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="121" priority="7" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BM$5,task_start&lt;BN$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DG66:DP67">
-    <cfRule type="expression" dxfId="120" priority="4">
-      <formula>AND(TODAY()&gt;=DG$5, TODAY()&lt;DH$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DG66:DP67">
-    <cfRule type="expression" dxfId="119" priority="3" stopIfTrue="1">
-      <formula>AND(task_end&gt;=DG$5,task_start&lt;DH$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DG66:DP67">
-    <cfRule type="expression" dxfId="118" priority="1">
-      <formula>AND(task_start&lt;=DG$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=DG$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DG66:DP67">
-    <cfRule type="expression" dxfId="117" priority="2">
-      <formula>AND(task_start&lt;=DG$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=DG$5)</formula>
+    <cfRule type="expression" dxfId="0" priority="154">
+      <formula>AND(TODAY()&gt;=GB$5, TODAY()&lt;GC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="13">
@@ -29990,6 +24528,21 @@
           <xm:sqref>D7:D39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D13B2AEB-4697-1F4B-A888-E0634BFD5C8E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D40:D49</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6257828B-7AD2-4B40-83B0-926EC244584F}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -30020,36 +24573,6 @@
           <xm:sqref>D55:D60</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D13B2AEB-4697-1F4B-A888-E0634BFD5C8E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D40:D49</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{71C973A6-7D13-2A4D-B7E0-C14C40BCE926}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>DS75:DS130</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5E5A2D73-FCCC-3740-B611-9501BEC964E9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -30078,6 +24601,21 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>D65:D68</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{71C973A6-7D13-2A4D-B7E0-C14C40BCE926}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>DS75:DS130</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -30210,35 +24748,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -30550,10 +25059,52 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2348D59-3426-404A-A0C5-6456F6613EDB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -30578,22 +25129,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2348D59-3426-404A-A0C5-6456F6613EDB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GanttChartFinal.xlsx
+++ b/GanttChartFinal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.elsayed/Documents/GitHub/app-3-4-SATrepositry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE9236D-5EAF-2E4C-A6D5-3B9B65834628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406D1E72-086C-5544-99AF-73F6D869458A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project schedule" sheetId="11" r:id="rId1"/>
@@ -260,9 +260,6 @@
     <t>Identify Solution Scope, Constraints, Requirements</t>
   </si>
   <si>
-    <t>Understand Skills underpinning Analysis Stage</t>
-  </si>
-  <si>
     <t>TERM 2 END SAT 2 BEGINNING</t>
   </si>
   <si>
@@ -378,6 +375,9 @@
   </si>
   <si>
     <t>8/20/25</t>
+  </si>
+  <si>
+    <t>File Report on Project Scope, Requirements, Constraints and Skills Needed.</t>
   </si>
 </sst>
 </file>
@@ -1284,22 +1284,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1316,14 +1313,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="17" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1343,18 +1343,6 @@
   </cellStyles>
   <dxfs count="104">
     <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.39994506668294322"/>
@@ -1369,6 +1357,18 @@
         <bottom style="thin">
           <color theme="0" tint="-4.9989318521683403E-2"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1477,6 +1477,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -1494,14 +1501,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
+          <bgColor theme="8"/>
         </patternFill>
       </fill>
       <border>
@@ -1512,7 +1512,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8"/>
+          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
       <border>
@@ -1764,10 +1764,12 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
+        <left/>
+        <right/>
         <top style="thin">
           <color theme="0" tint="-4.9989318521683403E-2"/>
         </top>
@@ -1779,12 +1781,10 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
         <top style="thin">
           <color theme="0" tint="-4.9989318521683403E-2"/>
         </top>
@@ -1857,10 +1857,12 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
+        <left/>
+        <right/>
         <top style="thin">
           <color theme="0" tint="-4.9989318521683403E-2"/>
         </top>
@@ -1872,12 +1874,10 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
         <top style="thin">
           <color theme="0" tint="-4.9989318521683403E-2"/>
         </top>
@@ -1901,12 +1901,10 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
         <top style="thin">
           <color theme="0" tint="-4.9989318521683403E-2"/>
         </top>
@@ -1918,10 +1916,12 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
+        <left/>
+        <right/>
         <top style="thin">
           <color theme="0" tint="-4.9989318521683403E-2"/>
         </top>
@@ -1989,23 +1989,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -2033,7 +2016,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
@@ -2065,12 +2048,73 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="6" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
         <left/>
         <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
         <top style="thin">
           <color theme="0" tint="-4.9989318521683403E-2"/>
         </top>
@@ -2121,51 +2165,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right style="thin">
-          <color theme="5"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
+          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
       <border>
@@ -2176,7 +2176,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
+          <bgColor theme="8"/>
         </patternFill>
       </fill>
       <border>
@@ -2223,10 +2223,12 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
+        <left/>
+        <right/>
         <top style="thin">
           <color theme="0" tint="-4.9989318521683403E-2"/>
         </top>
@@ -2238,12 +2240,10 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
         <top style="thin">
           <color theme="0" tint="-4.9989318521683403E-2"/>
         </top>
@@ -2360,7 +2360,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8"/>
+          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
       <border>
@@ -2371,7 +2371,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
+          <bgColor theme="8"/>
         </patternFill>
       </fill>
       <border>
@@ -2581,12 +2581,10 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
+          <bgColor theme="6" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <border>
-        <left/>
-        <right/>
         <top style="thin">
           <color theme="0" tint="-4.9989318521683403E-2"/>
         </top>
@@ -2598,10 +2596,12 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
+          <bgColor theme="6" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
       <border>
+        <left/>
+        <right/>
         <top style="thin">
           <color theme="0" tint="-4.9989318521683403E-2"/>
         </top>
@@ -6064,8 +6064,8 @@
   </sheetPr>
   <dimension ref="A1:II197"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AF74" sqref="AF74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6091,29 +6091,29 @@
       <c r="E1" s="15"/>
       <c r="F1" s="16"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="116" t="s">
+      <c r="I1" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
       <c r="P1" s="19"/>
-      <c r="Q1" s="114">
+      <c r="Q1" s="113">
         <f>DATE(2025,5,8)</f>
         <v>45785</v>
       </c>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
-      <c r="W1" s="115"/>
-      <c r="X1" s="115"/>
-      <c r="Y1" s="115"/>
-      <c r="Z1" s="115"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="114"/>
+      <c r="Y1" s="114"/>
+      <c r="Z1" s="114"/>
     </row>
     <row r="2" spans="1:120" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="81" t="s">
@@ -6125,28 +6125,28 @@
       <c r="D2" s="17"/>
       <c r="E2" s="18"/>
       <c r="F2" s="17"/>
-      <c r="I2" s="118" t="s">
-        <v>91</v>
-      </c>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
+      <c r="I2" s="117" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
       <c r="P2" s="96"/>
-      <c r="Q2" s="112">
+      <c r="Q2" s="111">
         <v>1</v>
       </c>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
-      <c r="V2" s="113"/>
-      <c r="W2" s="113"/>
-      <c r="X2" s="113"/>
-      <c r="Y2" s="113"/>
-      <c r="Z2" s="113"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="112"/>
     </row>
     <row r="3" spans="1:120" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
@@ -6162,182 +6162,182 @@
         <v>11</v>
       </c>
       <c r="E4" s="25"/>
-      <c r="I4" s="122">
+      <c r="I4" s="108">
         <f>I5</f>
         <v>45782</v>
       </c>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="120"/>
-      <c r="N4" s="120"/>
-      <c r="O4" s="120"/>
-      <c r="P4" s="120">
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
+      <c r="P4" s="106">
         <f>P5</f>
         <v>45789</v>
       </c>
-      <c r="Q4" s="120"/>
-      <c r="R4" s="120"/>
-      <c r="S4" s="120"/>
-      <c r="T4" s="120"/>
-      <c r="U4" s="120"/>
-      <c r="V4" s="120"/>
-      <c r="W4" s="120">
+      <c r="Q4" s="106"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="106">
         <f>W5</f>
         <v>45796</v>
       </c>
-      <c r="X4" s="120"/>
-      <c r="Y4" s="120"/>
-      <c r="Z4" s="120"/>
-      <c r="AA4" s="120"/>
-      <c r="AB4" s="120"/>
-      <c r="AC4" s="120"/>
-      <c r="AD4" s="120">
+      <c r="X4" s="106"/>
+      <c r="Y4" s="106"/>
+      <c r="Z4" s="106"/>
+      <c r="AA4" s="106"/>
+      <c r="AB4" s="106"/>
+      <c r="AC4" s="106"/>
+      <c r="AD4" s="106">
         <f>AD5</f>
         <v>45803</v>
       </c>
-      <c r="AE4" s="120"/>
-      <c r="AF4" s="120"/>
-      <c r="AG4" s="120"/>
-      <c r="AH4" s="120"/>
-      <c r="AI4" s="120"/>
-      <c r="AJ4" s="120"/>
-      <c r="AK4" s="120">
+      <c r="AE4" s="106"/>
+      <c r="AF4" s="106"/>
+      <c r="AG4" s="106"/>
+      <c r="AH4" s="106"/>
+      <c r="AI4" s="106"/>
+      <c r="AJ4" s="106"/>
+      <c r="AK4" s="106">
         <f>AK5</f>
         <v>45810</v>
       </c>
-      <c r="AL4" s="120"/>
-      <c r="AM4" s="120"/>
-      <c r="AN4" s="120"/>
-      <c r="AO4" s="120"/>
-      <c r="AP4" s="120"/>
-      <c r="AQ4" s="120"/>
-      <c r="AR4" s="120">
+      <c r="AL4" s="106"/>
+      <c r="AM4" s="106"/>
+      <c r="AN4" s="106"/>
+      <c r="AO4" s="106"/>
+      <c r="AP4" s="106"/>
+      <c r="AQ4" s="106"/>
+      <c r="AR4" s="106">
         <f>AR5</f>
         <v>45817</v>
       </c>
-      <c r="AS4" s="120"/>
-      <c r="AT4" s="120"/>
-      <c r="AU4" s="120"/>
-      <c r="AV4" s="120"/>
-      <c r="AW4" s="120"/>
-      <c r="AX4" s="120"/>
-      <c r="AY4" s="120">
+      <c r="AS4" s="106"/>
+      <c r="AT4" s="106"/>
+      <c r="AU4" s="106"/>
+      <c r="AV4" s="106"/>
+      <c r="AW4" s="106"/>
+      <c r="AX4" s="106"/>
+      <c r="AY4" s="106">
         <f>AY5</f>
         <v>45824</v>
       </c>
-      <c r="AZ4" s="120"/>
-      <c r="BA4" s="120"/>
-      <c r="BB4" s="120"/>
-      <c r="BC4" s="120"/>
-      <c r="BD4" s="120"/>
-      <c r="BE4" s="120"/>
-      <c r="BF4" s="120">
+      <c r="AZ4" s="106"/>
+      <c r="BA4" s="106"/>
+      <c r="BB4" s="106"/>
+      <c r="BC4" s="106"/>
+      <c r="BD4" s="106"/>
+      <c r="BE4" s="106"/>
+      <c r="BF4" s="106">
         <f>BF5</f>
         <v>45831</v>
       </c>
-      <c r="BG4" s="120"/>
-      <c r="BH4" s="120"/>
-      <c r="BI4" s="120"/>
-      <c r="BJ4" s="120"/>
-      <c r="BK4" s="120"/>
-      <c r="BL4" s="121"/>
-      <c r="BM4" s="120">
+      <c r="BG4" s="106"/>
+      <c r="BH4" s="106"/>
+      <c r="BI4" s="106"/>
+      <c r="BJ4" s="106"/>
+      <c r="BK4" s="106"/>
+      <c r="BL4" s="107"/>
+      <c r="BM4" s="106">
         <f>BM5</f>
         <v>45838</v>
       </c>
-      <c r="BN4" s="120"/>
-      <c r="BO4" s="120"/>
-      <c r="BP4" s="120"/>
-      <c r="BQ4" s="120"/>
-      <c r="BR4" s="120"/>
-      <c r="BS4" s="121"/>
-      <c r="BT4" s="120">
+      <c r="BN4" s="106"/>
+      <c r="BO4" s="106"/>
+      <c r="BP4" s="106"/>
+      <c r="BQ4" s="106"/>
+      <c r="BR4" s="106"/>
+      <c r="BS4" s="107"/>
+      <c r="BT4" s="106">
         <f>BT5</f>
         <v>45845</v>
       </c>
-      <c r="BU4" s="120"/>
-      <c r="BV4" s="120"/>
-      <c r="BW4" s="120"/>
-      <c r="BX4" s="120"/>
-      <c r="BY4" s="120"/>
-      <c r="BZ4" s="121"/>
-      <c r="CA4" s="120">
+      <c r="BU4" s="106"/>
+      <c r="BV4" s="106"/>
+      <c r="BW4" s="106"/>
+      <c r="BX4" s="106"/>
+      <c r="BY4" s="106"/>
+      <c r="BZ4" s="107"/>
+      <c r="CA4" s="106">
         <f>CA5</f>
         <v>45852</v>
       </c>
-      <c r="CB4" s="120"/>
-      <c r="CC4" s="120"/>
-      <c r="CD4" s="120"/>
-      <c r="CE4" s="120"/>
-      <c r="CF4" s="120"/>
-      <c r="CG4" s="121"/>
-      <c r="CH4" s="120">
+      <c r="CB4" s="106"/>
+      <c r="CC4" s="106"/>
+      <c r="CD4" s="106"/>
+      <c r="CE4" s="106"/>
+      <c r="CF4" s="106"/>
+      <c r="CG4" s="107"/>
+      <c r="CH4" s="106">
         <f>CH5</f>
         <v>45859</v>
       </c>
-      <c r="CI4" s="120"/>
-      <c r="CJ4" s="120"/>
-      <c r="CK4" s="120"/>
-      <c r="CL4" s="120"/>
-      <c r="CM4" s="120"/>
-      <c r="CN4" s="121"/>
-      <c r="CO4" s="120">
+      <c r="CI4" s="106"/>
+      <c r="CJ4" s="106"/>
+      <c r="CK4" s="106"/>
+      <c r="CL4" s="106"/>
+      <c r="CM4" s="106"/>
+      <c r="CN4" s="107"/>
+      <c r="CO4" s="106">
         <f>CO5</f>
         <v>45866</v>
       </c>
-      <c r="CP4" s="120"/>
-      <c r="CQ4" s="120"/>
-      <c r="CR4" s="120"/>
-      <c r="CS4" s="120"/>
-      <c r="CT4" s="120"/>
-      <c r="CU4" s="121"/>
-      <c r="CV4" s="120">
+      <c r="CP4" s="106"/>
+      <c r="CQ4" s="106"/>
+      <c r="CR4" s="106"/>
+      <c r="CS4" s="106"/>
+      <c r="CT4" s="106"/>
+      <c r="CU4" s="107"/>
+      <c r="CV4" s="106">
         <f>CV5</f>
         <v>45873</v>
       </c>
-      <c r="CW4" s="120"/>
-      <c r="CX4" s="120"/>
-      <c r="CY4" s="120"/>
-      <c r="CZ4" s="120"/>
-      <c r="DA4" s="120"/>
-      <c r="DB4" s="121"/>
-      <c r="DC4" s="120">
+      <c r="CW4" s="106"/>
+      <c r="CX4" s="106"/>
+      <c r="CY4" s="106"/>
+      <c r="CZ4" s="106"/>
+      <c r="DA4" s="106"/>
+      <c r="DB4" s="107"/>
+      <c r="DC4" s="106">
         <f>DC5</f>
         <v>45880</v>
       </c>
-      <c r="DD4" s="120"/>
-      <c r="DE4" s="120"/>
-      <c r="DF4" s="120"/>
-      <c r="DG4" s="120"/>
-      <c r="DH4" s="120"/>
-      <c r="DI4" s="121"/>
-      <c r="DJ4" s="120">
+      <c r="DD4" s="106"/>
+      <c r="DE4" s="106"/>
+      <c r="DF4" s="106"/>
+      <c r="DG4" s="106"/>
+      <c r="DH4" s="106"/>
+      <c r="DI4" s="107"/>
+      <c r="DJ4" s="106">
         <f>DJ5</f>
         <v>45887</v>
       </c>
-      <c r="DK4" s="120"/>
-      <c r="DL4" s="120"/>
-      <c r="DM4" s="120"/>
-      <c r="DN4" s="120"/>
-      <c r="DO4" s="120"/>
-      <c r="DP4" s="121"/>
+      <c r="DK4" s="106"/>
+      <c r="DL4" s="106"/>
+      <c r="DM4" s="106"/>
+      <c r="DN4" s="106"/>
+      <c r="DO4" s="106"/>
+      <c r="DP4" s="107"/>
     </row>
     <row r="5" spans="1:120" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="106"/>
-      <c r="B5" s="107" t="s">
+      <c r="A5" s="119"/>
+      <c r="B5" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="111" t="s">
+      <c r="F5" s="109" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="26">
@@ -6790,8 +6790,8 @@
       </c>
     </row>
     <row r="6" spans="1:120" s="21" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="106"/>
-      <c r="B6" s="108"/>
+      <c r="A6" s="119"/>
+      <c r="B6" s="121"/>
       <c r="C6" s="110"/>
       <c r="D6" s="110"/>
       <c r="E6" s="110"/>
@@ -8983,13 +8983,13 @@
     <row r="22" spans="1:121" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="67" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="C22" s="68" t="s">
         <v>43</v>
       </c>
       <c r="D22" s="69">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E22" s="70">
         <f>F21</f>
@@ -9120,13 +9120,13 @@
     <row r="23" spans="1:121" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23" s="67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="68" t="s">
         <v>43</v>
       </c>
       <c r="D23" s="69">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E23" s="70">
         <f>F22</f>
@@ -9467,7 +9467,7 @@
     <row r="26" spans="1:121" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
       <c r="B26" s="77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" s="78" t="s">
         <v>43</v>
@@ -9604,7 +9604,7 @@
     <row r="27" spans="1:121" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
       <c r="B27" s="77" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" s="78" t="s">
         <v>43</v>
@@ -9741,7 +9741,7 @@
     <row r="28" spans="1:121" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
       <c r="B28" s="77" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" s="78" t="s">
         <v>43</v>
@@ -9878,7 +9878,7 @@
     <row r="29" spans="1:121" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29" s="77" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C29" s="78" t="s">
         <v>43</v>
@@ -10015,7 +10015,7 @@
     <row r="30" spans="1:121" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
       <c r="B30" s="77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" s="78" t="s">
         <v>43</v>
@@ -10152,7 +10152,7 @@
     <row r="31" spans="1:121" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
       <c r="B31" s="77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" s="78" t="s">
         <v>43</v>
@@ -10359,7 +10359,7 @@
     <row r="33" spans="1:122" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C33" s="43" t="s">
         <v>43</v>
@@ -10495,7 +10495,7 @@
     </row>
     <row r="34" spans="1:122" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B34" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" s="48" t="s">
         <v>43</v>
@@ -10631,7 +10631,7 @@
     </row>
     <row r="35" spans="1:122" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B35" s="47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C35" s="48" t="s">
         <v>43</v>
@@ -10767,7 +10767,7 @@
     </row>
     <row r="36" spans="1:122" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B36" s="47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C36" s="48" t="s">
         <v>43</v>
@@ -10903,7 +10903,7 @@
     </row>
     <row r="37" spans="1:122" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B37" s="47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C37" s="48" t="s">
         <v>43</v>
@@ -11039,7 +11039,7 @@
     </row>
     <row r="38" spans="1:122" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B38" s="47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" s="48" t="s">
         <v>43</v>
@@ -11176,7 +11176,7 @@
     </row>
     <row r="39" spans="1:122" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B39" s="47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C39" s="48" t="s">
         <v>43</v>
@@ -11313,7 +11313,7 @@
     </row>
     <row r="40" spans="1:122" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B40" s="91" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="92"/>
       <c r="D40" s="93"/>
@@ -11454,7 +11454,7 @@
     <row r="42" spans="1:122" s="105" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="97"/>
       <c r="B42" s="98" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C42" s="99" t="s">
         <v>43</v>
@@ -11590,7 +11590,7 @@
     </row>
     <row r="43" spans="1:122" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B43" s="57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C43" s="58" t="s">
         <v>43</v>
@@ -11726,7 +11726,7 @@
     </row>
     <row r="44" spans="1:122" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B44" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C44" s="58" t="s">
         <v>43</v>
@@ -11862,7 +11862,7 @@
     </row>
     <row r="45" spans="1:122" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B45" s="57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C45" s="58" t="s">
         <v>43</v>
@@ -11998,7 +11998,7 @@
     </row>
     <row r="46" spans="1:122" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B46" s="57" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C46" s="58" t="s">
         <v>43</v>
@@ -12134,7 +12134,7 @@
     </row>
     <row r="47" spans="1:122" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B47" s="57" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C47" s="58" t="s">
         <v>43</v>
@@ -12272,7 +12272,7 @@
     </row>
     <row r="48" spans="1:122" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C48" s="58" t="s">
         <v>43</v>
@@ -12410,7 +12410,7 @@
     </row>
     <row r="49" spans="2:122" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B49" s="57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C49" s="58" t="s">
         <v>43</v>
@@ -12620,7 +12620,7 @@
     </row>
     <row r="51" spans="2:122" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B51" s="67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="68" t="s">
         <v>43</v>
@@ -12758,7 +12758,7 @@
     </row>
     <row r="52" spans="2:122" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B52" s="67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C52" s="68" t="s">
         <v>43</v>
@@ -12896,7 +12896,7 @@
     </row>
     <row r="53" spans="2:122" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B53" s="67" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C53" s="68" t="s">
         <v>43</v>
@@ -13034,7 +13034,7 @@
     </row>
     <row r="54" spans="2:122" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B54" s="67" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C54" s="68" t="s">
         <v>43</v>
@@ -13244,7 +13244,7 @@
     </row>
     <row r="56" spans="2:122" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B56" s="77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C56" s="78" t="s">
         <v>43</v>
@@ -13382,7 +13382,7 @@
     </row>
     <row r="57" spans="2:122" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B57" s="77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C57" s="78" t="s">
         <v>43</v>
@@ -13520,7 +13520,7 @@
     </row>
     <row r="58" spans="2:122" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B58" s="77" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C58" s="78" t="s">
         <v>43</v>
@@ -13658,7 +13658,7 @@
     </row>
     <row r="59" spans="2:122" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B59" s="77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C59" s="78" t="s">
         <v>43</v>
@@ -13796,13 +13796,13 @@
     </row>
     <row r="60" spans="2:122" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B60" s="77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C60" s="78" t="s">
         <v>43</v>
       </c>
       <c r="D60" s="79" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E60" s="80">
         <f>F59</f>
@@ -14064,7 +14064,7 @@
     </row>
     <row r="62" spans="2:122" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B62" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C62" s="43" t="s">
         <v>43</v>
@@ -14202,7 +14202,7 @@
     </row>
     <row r="63" spans="2:122" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B63" s="47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C63" s="48" t="s">
         <v>43</v>
@@ -14340,7 +14340,7 @@
     </row>
     <row r="64" spans="2:122" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C64" s="48" t="s">
         <v>43</v>
@@ -14606,7 +14606,7 @@
     </row>
     <row r="66" spans="2:243" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B66" s="57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C66" s="58" t="s">
         <v>43</v>
@@ -14744,7 +14744,7 @@
     </row>
     <row r="67" spans="2:243" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B67" s="57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C67" s="58" t="s">
         <v>43</v>
@@ -14888,7 +14888,7 @@
       <c r="D68" s="93"/>
       <c r="E68" s="94"/>
       <c r="F68" s="95" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G68" s="10"/>
       <c r="H68" s="10" t="str">
@@ -15263,10 +15263,28 @@
       <c r="DR70" s="10"/>
     </row>
     <row r="71" spans="2:243" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R71" s="10"/>
+      <c r="S71" s="10"/>
+      <c r="T71" s="10"/>
+      <c r="U71" s="10"/>
+      <c r="V71" s="10"/>
+      <c r="W71" s="10"/>
+      <c r="X71" s="10"/>
+      <c r="Y71" s="10"/>
+      <c r="Z71" s="10"/>
       <c r="DQ71" s="10"/>
       <c r="DR71" s="10"/>
     </row>
     <row r="72" spans="2:243" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R72" s="10"/>
+      <c r="S72" s="10"/>
+      <c r="T72" s="10"/>
+      <c r="U72" s="10"/>
+      <c r="V72" s="10"/>
+      <c r="W72" s="10"/>
+      <c r="X72" s="10"/>
+      <c r="Y72" s="10"/>
+      <c r="Z72" s="10"/>
       <c r="DQ72" s="10"/>
       <c r="DR72" s="10"/>
     </row>
@@ -23949,6 +23967,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="BF4:BL4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="CV4:DB4"/>
     <mergeCell ref="DC4:DI4"/>
     <mergeCell ref="DJ4:DP4"/>
@@ -23957,24 +23993,6 @@
     <mergeCell ref="CA4:CG4"/>
     <mergeCell ref="CH4:CN4"/>
     <mergeCell ref="CO4:CU4"/>
-    <mergeCell ref="BF4:BL4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D39">
     <cfRule type="dataBar" priority="302">
@@ -24081,11 +24099,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51:BJ51 I52:BL54 F73:R73 U73:BI73">
-    <cfRule type="expression" dxfId="90" priority="104">
+    <cfRule type="expression" dxfId="90" priority="105" stopIfTrue="1">
+      <formula>AND(task_end&gt;=F$5,task_start&lt;G$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="104">
       <formula>AND(task_start&lt;=F$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=F$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="89" priority="105" stopIfTrue="1">
-      <formula>AND(task_end&gt;=F$5,task_start&lt;G$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:BL19 T48:BL48 I48:Q48">
@@ -24156,11 +24174,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55:BL60">
-    <cfRule type="expression" dxfId="73" priority="59">
+    <cfRule type="expression" dxfId="73" priority="60" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="59">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="60" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66:DF67">
@@ -24195,11 +24213,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I62:DP64">
-    <cfRule type="expression" dxfId="64" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="14">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="15" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="14">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J66:DF67 I61:BL67">
@@ -24218,53 +24236,53 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT31">
-    <cfRule type="expression" dxfId="59" priority="323">
+    <cfRule type="expression" dxfId="59" priority="324" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="323">
       <formula>AND(task_start&lt;=AU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AU$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="324" stopIfTrue="1">
-      <formula>AND(task_end&gt;=AU$5,task_start&lt;AV$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="57" priority="320">
       <formula>AND(TODAY()&gt;=AU$5, TODAY()&lt;AV$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB51:DP54">
-    <cfRule type="expression" dxfId="56" priority="24">
+    <cfRule type="expression" dxfId="56" priority="23">
+      <formula>AND(TODAY()&gt;=BB$5, TODAY()&lt;BC$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="36">
       <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="37" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
+    <cfRule type="expression" dxfId="54" priority="24">
+      <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="35">
+    <cfRule type="expression" dxfId="53" priority="35">
       <formula>AND(TODAY()&gt;=BB$5, TODAY()&lt;BC$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="23">
-      <formula>AND(TODAY()&gt;=BB$5, TODAY()&lt;BC$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="36">
-      <formula>AND(task_start&lt;=BB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BB$5)</formula>
+    <cfRule type="expression" dxfId="52" priority="37" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="51" priority="25" stopIfTrue="1">
       <formula>AND(task_end&gt;=BB$5,task_start&lt;BC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ73:DM73">
-    <cfRule type="expression" dxfId="50" priority="102">
+    <cfRule type="expression" dxfId="50" priority="103" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BJ$5,task_start&lt;BK$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="102">
       <formula>AND(task_start&lt;=BJ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BJ$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="103" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BJ$5,task_start&lt;BK$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL51">
-    <cfRule type="expression" dxfId="48" priority="326">
+    <cfRule type="expression" dxfId="48" priority="330" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BK$5,task_start&lt;BL$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="326">
       <formula>AND(TODAY()&gt;=BK$5, TODAY()&lt;BL$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="329">
+    <cfRule type="expression" dxfId="46" priority="329">
       <formula>AND(task_start&lt;=BK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BK$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="330" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BK$5,task_start&lt;BL$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM42:BV42">
@@ -24296,22 +24314,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM13:DP19">
-    <cfRule type="expression" dxfId="41" priority="249">
+    <cfRule type="expression" dxfId="41" priority="250" stopIfTrue="1">
+      <formula>AND(task_end&gt;=BM$5,task_start&lt;BN$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="249">
       <formula>AND(task_start&lt;=BM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BM$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="250" stopIfTrue="1">
-      <formula>AND(task_end&gt;=BM$5,task_start&lt;BN$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM19:DP31">
     <cfRule type="expression" dxfId="39" priority="236">
       <formula>AND(TODAY()&gt;=BM$5, TODAY()&lt;BN$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="238" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="237">
+      <formula>AND(task_start&lt;=BM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BM$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="238" stopIfTrue="1">
       <formula>AND(task_end&gt;=BM$5,task_start&lt;BN$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="237">
-      <formula>AND(task_start&lt;=BM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM33:DP39">
@@ -24333,11 +24351,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM55:DP55">
-    <cfRule type="expression" dxfId="32" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="57">
+      <formula>AND(task_start&lt;=BM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BM$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="58" stopIfTrue="1">
       <formula>AND(task_end&gt;=BM$5,task_start&lt;BN$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="57">
-      <formula>AND(task_start&lt;=BM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=BM$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM55:DP60">
@@ -24431,19 +24449,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DX112:GA117">
-    <cfRule type="expression" dxfId="12" priority="188" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="187">
+      <formula>AND(task_start&lt;=DX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=DX$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="188" stopIfTrue="1">
       <formula>AND(task_end&gt;=DX$5,task_start&lt;DY$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="187">
-      <formula>AND(task_start&lt;=DX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=DX$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DX125:GA129">
-    <cfRule type="expression" dxfId="10" priority="158">
+    <cfRule type="expression" dxfId="10" priority="159" stopIfTrue="1">
+      <formula>AND(task_end&gt;=DX$5,task_start&lt;DY$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="158">
       <formula>AND(task_start&lt;=DX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=DX$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="159" stopIfTrue="1">
-      <formula>AND(task_end&gt;=DX$5,task_start&lt;DY$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DX119:IE123">
@@ -24474,11 +24492,11 @@
     <cfRule type="expression" dxfId="2" priority="155">
       <formula>AND(task_start&lt;=GB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=GB$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="154">
+      <formula>AND(TODAY()&gt;=GB$5, TODAY()&lt;GC$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="156" stopIfTrue="1">
       <formula>AND(task_end&gt;=GB$5,task_start&lt;GC$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="154">
-      <formula>AND(TODAY()&gt;=GB$5, TODAY()&lt;GC$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="13">
@@ -24748,6 +24766,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -25059,52 +25106,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2348D59-3426-404A-A0C5-6456F6613EDB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -25129,9 +25134,22 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2348D59-3426-404A-A0C5-6456F6613EDB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GanttChartFinal.xlsx
+++ b/GanttChartFinal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.elsayed/Documents/GitHub/app-3-4-SATrepositry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406D1E72-086C-5544-99AF-73F6D869458A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC43240-BDDF-BF46-B302-AFCFFDA6898C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project schedule" sheetId="11" r:id="rId1"/>
@@ -6064,8 +6064,8 @@
   </sheetPr>
   <dimension ref="A1:II197"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AF74" sqref="AF74"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9610,7 +9610,7 @@
         <v>43</v>
       </c>
       <c r="D27" s="79">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E27" s="80">
         <f>DATE(2025, 5, 19)</f>
@@ -9747,7 +9747,7 @@
         <v>43</v>
       </c>
       <c r="D28" s="79">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E28" s="80">
         <f>F27</f>
@@ -9884,7 +9884,7 @@
         <v>43</v>
       </c>
       <c r="D29" s="79">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E29" s="80">
         <f>F25+1</f>
@@ -10021,7 +10021,7 @@
         <v>43</v>
       </c>
       <c r="D30" s="79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="80">
         <f>F29</f>
@@ -10158,7 +10158,7 @@
         <v>43</v>
       </c>
       <c r="D31" s="79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="80">
         <f>E27+7</f>
@@ -11460,7 +11460,7 @@
         <v>43</v>
       </c>
       <c r="D42" s="100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="101">
         <f>F39</f>
@@ -11732,7 +11732,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" s="60">
         <f>E42</f>
@@ -12140,7 +12140,7 @@
         <v>43</v>
       </c>
       <c r="D47" s="59">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E47" s="60">
         <f>F46</f>
@@ -12278,7 +12278,7 @@
         <v>43</v>
       </c>
       <c r="D48" s="59">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E48" s="60">
         <f>F47</f>
@@ -24766,15 +24766,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -24794,7 +24785,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -25106,15 +25097,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -25133,7 +25125,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2348D59-3426-404A-A0C5-6456F6613EDB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25154,6 +25146,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>
--- a/GanttChartFinal.xlsx
+++ b/GanttChartFinal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.elsayed/Documents/GitHub/app-3-4-SATrepositry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC43240-BDDF-BF46-B302-AFCFFDA6898C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C984A4AB-96F7-C743-84C8-6DC35D10DABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6064,8 +6064,8 @@
   </sheetPr>
   <dimension ref="A1:II197"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10365,7 +10365,7 @@
         <v>43</v>
       </c>
       <c r="D33" s="44">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="E33" s="45">
         <f>F31</f>
@@ -10501,7 +10501,7 @@
         <v>43</v>
       </c>
       <c r="D34" s="49">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E34" s="50">
         <f>F33</f>
@@ -10637,7 +10637,7 @@
         <v>43</v>
       </c>
       <c r="D35" s="49">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E35" s="50">
         <f>F34</f>
@@ -11182,7 +11182,7 @@
         <v>43</v>
       </c>
       <c r="D39" s="49">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E39" s="50">
         <f>F38+1</f>
@@ -12626,7 +12626,7 @@
         <v>43</v>
       </c>
       <c r="D51" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" s="70">
         <f>F46</f>
